--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/188.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/188.xlsx
@@ -479,13 +479,13 @@
         <v>-3.24874332108561</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.69784083765171</v>
+        <v>-14.72880413387239</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06894678060362155</v>
+        <v>-0.04303711327984567</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.17408680470967</v>
+        <v>-11.21536683556963</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.857311957269893</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.85197651900735</v>
+        <v>-14.87988930866591</v>
       </c>
       <c r="F3" t="n">
-        <v>4.965537227482467e-05</v>
+        <v>0.02949424446331675</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.88036099045554</v>
+        <v>-10.9188785454159</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.533013227430156</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.21358592349583</v>
+        <v>-15.24414335832842</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03757219531666173</v>
+        <v>0.06464707759335124</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.51541304874243</v>
+        <v>-10.55732151013879</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.314540269831925</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.72336091924412</v>
+        <v>-15.7569295837303</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1652614249320161</v>
+        <v>0.1963163672725903</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.32901793318477</v>
+        <v>-10.3727331323733</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.174751870258169</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.20823435498744</v>
+        <v>-16.24413344937945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1566074127536352</v>
+        <v>0.1861829248730943</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.17044396116579</v>
+        <v>-10.21599208275215</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.101119418198512</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.77912422040091</v>
+        <v>-16.82065300501486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2917068857774064</v>
+        <v>0.3302768099491314</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.0227889697168</v>
+        <v>-10.0679705068236</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.066871619237416</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.36520115711077</v>
+        <v>-17.4115217245648</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4414697379839109</v>
+        <v>0.4760465097889095</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.817357645827277</v>
+        <v>-9.862355890694289</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.054836774048028</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.09230838003171</v>
+        <v>-18.14478232982135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7192229427711295</v>
+        <v>0.7583296513593653</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.854133924509686</v>
+        <v>-9.89990461524436</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.045908451654827</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.57511323192605</v>
+        <v>-18.63114828808863</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7611314041674946</v>
+        <v>0.7953808684014501</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.507934160465922</v>
+        <v>-9.551819559591388</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.031222196984825</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.17924445425465</v>
+        <v>-19.23965233956638</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8866473115111224</v>
+        <v>0.9208836834422361</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.460697131812974</v>
+        <v>-9.50632380721639</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.010202320475301</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.72616231316492</v>
+        <v>-19.7880627210006</v>
       </c>
       <c r="F12" t="n">
-        <v>1.045024898987483</v>
+        <v>1.083738838490467</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.969212083134579</v>
+        <v>-9.015441004468713</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.987813906506416</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.53889319667075</v>
+        <v>-20.60380483416002</v>
       </c>
       <c r="F13" t="n">
-        <v>1.229770384387079</v>
+        <v>1.271325353606718</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.477386634582297</v>
+        <v>-8.529402353772474</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.975243435507604</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.37081739614255</v>
+        <v>-21.43613489501992</v>
       </c>
       <c r="F14" t="n">
-        <v>1.550518711706526</v>
+        <v>1.59681309455487</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.021132972850985</v>
+        <v>-8.080231627878536</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.981619191041661</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.19431015258428</v>
+        <v>-22.26125109701402</v>
       </c>
       <c r="F15" t="n">
-        <v>1.663479100624939</v>
+        <v>1.711658775082491</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.580563889924061</v>
+        <v>-7.645881388801432</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.009801672594488</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.05168578878039</v>
+        <v>-23.11680690311513</v>
       </c>
       <c r="F16" t="n">
-        <v>1.941795274434351</v>
+        <v>1.991886425106795</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.002015027348186</v>
+        <v>-7.062632389505378</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.059916089897466</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.66481142316126</v>
+        <v>-23.72838764576068</v>
       </c>
       <c r="F17" t="n">
-        <v>2.132288280781466</v>
+        <v>2.183164969624413</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.915527274775743</v>
+        <v>-6.978200128479086</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.128911443437246</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.47711026067331</v>
+        <v>-24.54253249797342</v>
       </c>
       <c r="F18" t="n">
-        <v>2.548230742063103</v>
+        <v>2.604580013493892</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.514470761825149</v>
+        <v>-6.576973415591549</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.213291543784324</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.32733749951785</v>
+        <v>-25.39575787416871</v>
       </c>
       <c r="F19" t="n">
-        <v>2.813402243819423</v>
+        <v>2.870589422632082</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.211436320250558</v>
+        <v>-6.271019390483253</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.315099427673361</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.08047222048814</v>
+        <v>-26.14899733356173</v>
       </c>
       <c r="F20" t="n">
-        <v>3.035238223169629</v>
+        <v>3.092268294348188</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.098567577452037</v>
+        <v>-6.165390691156207</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.434204391345192</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.66449366565186</v>
+        <v>-26.73328062478229</v>
       </c>
       <c r="F21" t="n">
-        <v>3.352936043926954</v>
+        <v>3.407766608228103</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.768405884389389</v>
+        <v>-5.830803799733055</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.571936746963981</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.25085863302424</v>
+        <v>-27.32022165347971</v>
       </c>
       <c r="F22" t="n">
-        <v>3.559323105923924</v>
+        <v>3.609309518173634</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.622060123224575</v>
+        <v>-5.692732373964213</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.729540364965602</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.6981833442175</v>
+        <v>-27.76443039659663</v>
       </c>
       <c r="F23" t="n">
-        <v>3.74201309977737</v>
+        <v>3.791161604645209</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.423332058390015</v>
+        <v>-5.491307294744256</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.903063229406317</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.92759976691306</v>
+        <v>-27.99464544976554</v>
       </c>
       <c r="F24" t="n">
-        <v>3.877858834063119</v>
+        <v>3.927583400255994</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.26089585703272</v>
+        <v>-5.329853016100091</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.092931943917329</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.19501005245532</v>
+        <v>-28.25990859764175</v>
       </c>
       <c r="F25" t="n">
-        <v>4.193069117280515</v>
+        <v>4.243291190981377</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.967562811863847</v>
+        <v>-5.034228817933917</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.295401606252032</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.15494760575963</v>
+        <v>-28.21936173574093</v>
       </c>
       <c r="F26" t="n">
-        <v>4.35344982709166</v>
+        <v>4.408385129815542</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.971254841265214</v>
+        <v>-5.040473846389419</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.506445328973429</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.04704084573813</v>
+        <v>-28.1092816534477</v>
       </c>
       <c r="F27" t="n">
-        <v>4.306605567523964</v>
+        <v>4.358136871508998</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.787203247916229</v>
+        <v>-4.849012009632018</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.725843737809641</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.99565355708435</v>
+        <v>-28.05992367173439</v>
       </c>
       <c r="F28" t="n">
-        <v>4.286521974964757</v>
+        <v>4.333182942292668</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.703255402095081</v>
+        <v>-4.760233104062273</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.948536980049452</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.78262869754663</v>
+        <v>-27.84289256752709</v>
       </c>
       <c r="F29" t="n">
-        <v>4.274922194646988</v>
+        <v>4.320247747085043</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.583892877087065</v>
+        <v>-4.638225933880228</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.173867513955818</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.63710775146084</v>
+        <v>-27.69563034516336</v>
       </c>
       <c r="F30" t="n">
-        <v>4.178143892040948</v>
+        <v>4.219410830598068</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.537533032724513</v>
+        <v>-4.591525689643791</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.400243098565245</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.1927680853155</v>
+        <v>-27.24893406450651</v>
       </c>
       <c r="F31" t="n">
-        <v>4.033264468794408</v>
+        <v>4.072253346657067</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.629401721764904</v>
+        <v>-4.677764688462241</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.623276775511207</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.81686188612386</v>
+        <v>-26.87046177395789</v>
       </c>
       <c r="F32" t="n">
-        <v>3.947614623603835</v>
+        <v>3.984377809983402</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.709592076670477</v>
+        <v>-4.757378982042777</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.8458418474584</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.39718811853233</v>
+        <v>-26.45074872945784</v>
       </c>
       <c r="F33" t="n">
-        <v>3.814465903703481</v>
+        <v>3.850522105729595</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.648018976405839</v>
+        <v>-4.683472932501234</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.065574577253471</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.91105782171621</v>
+        <v>-25.96286406406091</v>
       </c>
       <c r="F34" t="n">
-        <v>3.685401982289746</v>
+        <v>3.718604062296363</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.46932213491912</v>
+        <v>-4.499067846975522</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.283522572433506</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.50462037229766</v>
+        <v>-25.55344156959446</v>
       </c>
       <c r="F35" t="n">
-        <v>3.445969947920259</v>
+        <v>3.480036119914431</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.476444347665019</v>
+        <v>-4.50087458476768</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.502648143898594</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.81554628913193</v>
+        <v>-24.86469479399977</v>
       </c>
       <c r="F36" t="n">
-        <v>3.229868397214729</v>
+        <v>3.258383432804008</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.746460001472777</v>
+        <v>-4.768206316492885</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.719077206810023</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.33740229704926</v>
+        <v>-24.38374904910897</v>
       </c>
       <c r="F37" t="n">
-        <v>3.099154845642936</v>
+        <v>3.129057665333438</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.741445649484397</v>
+        <v>-4.758400181664432</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.938634866137068</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.92284761986884</v>
+        <v>-23.96685084971988</v>
       </c>
       <c r="F38" t="n">
-        <v>3.026440195659989</v>
+        <v>3.055478923362938</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.884950380932556</v>
+        <v>-4.904038958475792</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.159553407549693</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.42353337409109</v>
+        <v>-23.46621428135512</v>
       </c>
       <c r="F39" t="n">
-        <v>2.99808226770481</v>
+        <v>3.027775610549845</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.756946936049</v>
+        <v>-4.772474407219288</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.381239452556263</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.04079299281607</v>
+        <v>-23.08208611597888</v>
       </c>
       <c r="F40" t="n">
-        <v>3.08621965043531</v>
+        <v>3.12201400640459</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.744077202355583</v>
+        <v>-4.755716259581877</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.606706295380549</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.51060709693753</v>
+        <v>-22.55103612811278</v>
       </c>
       <c r="F41" t="n">
-        <v>3.104182289934159</v>
+        <v>3.136153693473654</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.672134998240298</v>
+        <v>-4.68360385552965</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.831700294165865</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.83537157787551</v>
+        <v>-21.87246207182612</v>
       </c>
       <c r="F42" t="n">
-        <v>3.199808469890126</v>
+        <v>3.23002550484883</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.699327711242564</v>
+        <v>-4.711713029730836</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.059359909894941</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.17250828499892</v>
+        <v>-21.20894416380744</v>
       </c>
       <c r="F43" t="n">
-        <v>3.317927226128178</v>
+        <v>3.348563214777818</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.741943156992382</v>
+        <v>-4.757156412894467</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.288189934091581</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.88387537655023</v>
+        <v>-20.91826885611544</v>
       </c>
       <c r="F44" t="n">
-        <v>3.225521752671276</v>
+        <v>3.253696388386671</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.793919599274035</v>
+        <v>-4.807299932778278</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.515302385679504</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.39843897178471</v>
+        <v>-20.43008306775316</v>
       </c>
       <c r="F45" t="n">
-        <v>3.351522075220048</v>
+        <v>3.382524648349255</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.742506126014576</v>
+        <v>-4.753844060275511</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.743867545519032</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.07017566263411</v>
+        <v>-20.10323372730947</v>
       </c>
       <c r="F46" t="n">
-        <v>3.37990618778091</v>
+        <v>3.410149407345297</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.720183749669433</v>
+        <v>-4.724203086641843</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.968458119430813</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.52789247892982</v>
+        <v>-19.55740252953507</v>
       </c>
       <c r="F47" t="n">
-        <v>3.38810196935983</v>
+        <v>3.416957404822994</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.991115864676113</v>
+        <v>-4.992752402531329</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.188428046554085</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.05323103940304</v>
+        <v>-19.08166752117527</v>
       </c>
       <c r="F48" t="n">
-        <v>3.318346179819114</v>
+        <v>3.345080662221918</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.106642344951504</v>
+        <v>-5.107650452270316</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.401727273765129</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.6649002448146</v>
+        <v>-18.69810232482122</v>
       </c>
       <c r="F49" t="n">
-        <v>3.337539495785084</v>
+        <v>3.36375028607422</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.394384976806958</v>
+        <v>-5.397435483369081</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.600806118661289</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.15081788143139</v>
+        <v>-18.18246197739984</v>
       </c>
       <c r="F50" t="n">
-        <v>3.477365290134719</v>
+        <v>3.508682078532127</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.313173422279732</v>
+        <v>-5.306195224865092</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.788072528730737</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.48558488174044</v>
+        <v>-17.51868222332433</v>
       </c>
       <c r="F51" t="n">
-        <v>3.49383540710961</v>
+        <v>3.527404071595796</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.526106635697565</v>
+        <v>-5.518892776831774</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.956157242955669</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.09362751926485</v>
+        <v>-17.12578221504413</v>
       </c>
       <c r="F52" t="n">
-        <v>3.323504547138754</v>
+        <v>3.354114351182709</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.81536797468266</v>
+        <v>-5.816624835755467</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.102879786644142</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.703097217799</v>
+        <v>-16.73717648209601</v>
       </c>
       <c r="F53" t="n">
-        <v>3.358644287965947</v>
+        <v>3.387290246583643</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845964686423774</v>
+        <v>-5.845571917338523</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.227466489301971</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.50508922962074</v>
+        <v>-16.54369843070099</v>
       </c>
       <c r="F54" t="n">
-        <v>3.093970293717613</v>
+        <v>3.12133320665682</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.023692697500206</v>
+        <v>-6.020000668098839</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.325190397032468</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.21417826047758</v>
+        <v>-16.25549756824607</v>
       </c>
       <c r="F55" t="n">
-        <v>2.946393856085676</v>
+        <v>2.974594676406754</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.167262890462574</v>
+        <v>-6.159446785666064</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.401742379685141</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.88384636747799</v>
+        <v>-15.92961705821267</v>
       </c>
       <c r="F56" t="n">
-        <v>2.892689229828916</v>
+        <v>2.92094241936136</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.47594011456195</v>
+        <v>-6.474643976580619</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.455554973107489</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.33728200074446</v>
+        <v>-15.38267301469672</v>
       </c>
       <c r="F57" t="n">
-        <v>2.928169370529993</v>
+        <v>2.961057235268409</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.733557357578593</v>
+        <v>-6.731724435180752</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.491202608601089</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.13465242966306</v>
+        <v>-15.18280591951493</v>
       </c>
       <c r="F58" t="n">
-        <v>2.769726321539425</v>
+        <v>2.803766308927912</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709166397384458</v>
+        <v>-6.708433228425321</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.515888922234826</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.78977498820631</v>
+        <v>-14.83974830815318</v>
       </c>
       <c r="F59" t="n">
-        <v>2.894757813677908</v>
+        <v>2.933144445609849</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.819521418037366</v>
+        <v>-6.817217172737223</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.531111751553482</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.73351736289542</v>
+        <v>-14.78677685085556</v>
       </c>
       <c r="F60" t="n">
-        <v>2.713691265376837</v>
+        <v>2.752051712703095</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823632401129668</v>
+        <v>-6.823763324158086</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.545678528046299</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.38951710572906</v>
+        <v>-14.44186013249028</v>
       </c>
       <c r="F61" t="n">
-        <v>2.599604938414036</v>
+        <v>2.638410524036912</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.230122219759579</v>
+        <v>-7.234730710359867</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.563215683085458</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.18192555187065</v>
+        <v>-14.23975425352256</v>
       </c>
       <c r="F62" t="n">
-        <v>2.553048709508858</v>
+        <v>2.593765771346626</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177006747130696</v>
+        <v>-7.176077193628934</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.58582178991262</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.86289231622347</v>
+        <v>-13.92120543308052</v>
       </c>
       <c r="F63" t="n">
-        <v>2.480648274794113</v>
+        <v>2.52112967518073</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.377305888306264</v>
+        <v>-7.381050286918998</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.622118266541515</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.67495230893049</v>
+        <v>-13.73653850149798</v>
       </c>
       <c r="F64" t="n">
-        <v>2.391908646132894</v>
+        <v>2.433987307466201</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.395661296890363</v>
+        <v>-7.389691206794537</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.669989579852919</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.48510082542263</v>
+        <v>-13.5479700636686</v>
       </c>
       <c r="F65" t="n">
-        <v>2.151036458450818</v>
+        <v>2.183479184892615</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741703953300026</v>
+        <v>-7.742358568442111</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.733315544893616</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.2693789514995</v>
+        <v>-13.33345268160691</v>
       </c>
       <c r="F66" t="n">
-        <v>2.084527560014849</v>
+        <v>2.117101209485063</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.786427259807362</v>
+        <v>-7.78261739968042</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.813077607764024</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.09953250673379</v>
+        <v>-13.16424775968044</v>
       </c>
       <c r="F67" t="n">
-        <v>2.357580628081888</v>
+        <v>2.403220395788145</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.863488554333761</v>
+        <v>-7.866264122536207</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.90485732716583</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.04934970994146</v>
+        <v>-13.11640848509678</v>
       </c>
       <c r="F68" t="n">
-        <v>2.068476396730893</v>
+        <v>2.105265767716143</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.764550021758837</v>
+        <v>-7.760766346237578</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.01278071609479</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.90897403887247</v>
+        <v>-12.97653032153578</v>
       </c>
       <c r="F69" t="n">
-        <v>2.125820683177653</v>
+        <v>2.172507835111248</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.836871902656532</v>
+        <v>-7.833075134832431</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.12856182297021</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.88557809369431</v>
+        <v>-12.95765122083801</v>
       </c>
       <c r="F70" t="n">
-        <v>2.124851852767365</v>
+        <v>2.168737251892831</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.746129151660529</v>
+        <v>-7.740433999924378</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.2501547465979</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.58000374536842</v>
+        <v>-12.64983808872619</v>
       </c>
       <c r="F71" t="n">
-        <v>2.080154730865713</v>
+        <v>2.125008960401466</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.456147736019139</v>
+        <v>-7.441916402830182</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.37351576353691</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.51219870895112</v>
+        <v>-12.58136534486396</v>
       </c>
       <c r="F72" t="n">
-        <v>2.089293158249237</v>
+        <v>2.131659850245063</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.520496404486222</v>
+        <v>-7.50986545457874</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.48804869814139</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.19905700958272</v>
+        <v>-12.25146549785815</v>
       </c>
       <c r="F73" t="n">
-        <v>2.065386613260245</v>
+        <v>2.107910412890172</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.255704579512313</v>
+        <v>-7.236406525123608</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.58976328611984</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.40086176558508</v>
+        <v>-12.45363683834008</v>
       </c>
       <c r="F74" t="n">
-        <v>2.089424081277655</v>
+        <v>2.130612466017725</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.204395844675588</v>
+        <v>-7.188776727385409</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.66648631892124</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.53360462409734</v>
+        <v>-12.58664154290917</v>
       </c>
       <c r="F75" t="n">
-        <v>2.021422660317729</v>
+        <v>2.0626110450578</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.131864486932425</v>
+        <v>-7.11961009147257</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.70971683336403</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.79292386648341</v>
+        <v>-12.84137847930064</v>
       </c>
       <c r="F76" t="n">
-        <v>2.002150790534709</v>
+        <v>2.040720714706433</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.786437168756325</v>
+        <v>-6.765424022695354</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.71441355271462</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.3688411761881</v>
+        <v>-13.41514865133928</v>
       </c>
       <c r="F77" t="n">
-        <v>1.994923839366076</v>
+        <v>2.034567332370822</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.728490636378845</v>
+        <v>-6.714102195555788</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.66960558738578</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.86134742448815</v>
+        <v>-13.90549466967045</v>
       </c>
       <c r="F78" t="n">
-        <v>2.045224466883987</v>
+        <v>2.08620337477859</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.742800523384852</v>
+        <v>-6.737236294677118</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.57345933678337</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.34995216654137</v>
+        <v>-14.39369355033557</v>
       </c>
       <c r="F79" t="n">
-        <v>2.090366727082259</v>
+        <v>2.130481542989307</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.64555089787651</v>
+        <v>-6.644542790557698</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.42041020411842</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.8984280094898</v>
+        <v>-14.94160642426181</v>
       </c>
       <c r="F80" t="n">
-        <v>1.980600860057228</v>
+        <v>2.015059801136651</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.294611720204044</v>
+        <v>-6.288693999319583</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.20928586784368</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.67062512339764</v>
+        <v>-15.71308346151336</v>
       </c>
       <c r="F81" t="n">
-        <v>2.078950239004274</v>
+        <v>2.115503948538373</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.235918926564585</v>
+        <v>-6.233313558299082</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.946443657786178</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.39991876089315</v>
+        <v>-16.44093694569628</v>
       </c>
       <c r="F82" t="n">
-        <v>2.050958895528663</v>
+        <v>2.083951498689813</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.135396225345812</v>
+        <v>-6.131900580487072</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.631343482565086</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.27643534384387</v>
+        <v>-17.31791175924646</v>
       </c>
       <c r="F83" t="n">
-        <v>2.031791764168376</v>
+        <v>2.066198336036432</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.840452826927407</v>
+        <v>-5.834901690522516</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.277107001528169</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.33033953799713</v>
+        <v>-18.37083403068659</v>
       </c>
       <c r="F84" t="n">
-        <v>2.044700774770318</v>
+        <v>2.074970178940389</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.72851363763065</v>
+        <v>-5.727413884191945</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.893323638742055</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.12967699569588</v>
+        <v>-19.16942522712336</v>
       </c>
       <c r="F85" t="n">
-        <v>2.070833011242403</v>
+        <v>2.1031186300501</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.590494581073173</v>
+        <v>-5.593453441515404</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.492526382596006</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.27759701655558</v>
+        <v>-20.32086707744748</v>
       </c>
       <c r="F86" t="n">
-        <v>2.058604800388232</v>
+        <v>2.090419096293626</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252595337031066</v>
+        <v>-5.25315830605326</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.094496257444552</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.34350685241471</v>
+        <v>-21.38715659008902</v>
       </c>
       <c r="F87" t="n">
-        <v>1.883167942309102</v>
+        <v>1.903408642502411</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.892295162826764</v>
+        <v>-4.88771285683216</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.711129545777599</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.68562500132573</v>
+        <v>-22.72809643174429</v>
       </c>
       <c r="F88" t="n">
-        <v>1.977092122895645</v>
+        <v>1.999767991417514</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661870632812385</v>
+        <v>-4.661975371235119</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.363237314444984</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.06683676652214</v>
+        <v>-24.10432002955801</v>
       </c>
       <c r="F89" t="n">
-        <v>1.843157864824787</v>
+        <v>1.870075639467376</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.277402067562257</v>
+        <v>-4.274901437719488</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.06823920371377</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.53600262220928</v>
+        <v>-25.57234685489791</v>
       </c>
       <c r="F90" t="n">
-        <v>1.62912489796825</v>
+        <v>1.652245904786738</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.163472848233558</v>
+        <v>-4.165593801293917</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.836771109131689</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.17941393641694</v>
+        <v>-27.21512973856917</v>
       </c>
       <c r="F91" t="n">
-        <v>1.424387466129337</v>
+        <v>1.445178043041998</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.062360993386907</v>
+        <v>-4.060868470862951</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.682699227018841</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.77345417660846</v>
+        <v>-28.80293804260803</v>
       </c>
       <c r="F92" t="n">
-        <v>1.301712588502364</v>
+        <v>1.320277473931932</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.792607185635983</v>
+        <v>-3.789713786707961</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.609475278858302</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.62251938385396</v>
+        <v>-30.6494240661937</v>
       </c>
       <c r="F93" t="n">
-        <v>1.162947270682909</v>
+        <v>1.180595694913556</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.783468758252458</v>
+        <v>-3.777616498882207</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.615627487634578</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.70017619871599</v>
+        <v>-32.72336266704869</v>
       </c>
       <c r="F94" t="n">
-        <v>1.049279897411044</v>
+        <v>1.065632183660359</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.777577221973682</v>
+        <v>-3.769185055852135</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.701107923417922</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.73097566170749</v>
+        <v>-34.75060102366724</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6450550471727513</v>
+        <v>0.6618131948101607</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.762913842790948</v>
+        <v>-3.753435015533539</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.857009194415379</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.70147197780999</v>
+        <v>-36.71830867926445</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4214254223332283</v>
+        <v>0.4414959225895944</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.976082717659932</v>
+        <v>-3.968751028068565</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.073076921701556</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.78995612712214</v>
+        <v>-38.80413509109972</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03948367153155374</v>
+        <v>0.05635964989453864</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.972783457343817</v>
+        <v>-3.960227938918602</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.350370335064625</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01240071911082</v>
+        <v>-41.01943128573683</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1700324508445885</v>
+        <v>-0.1500405044052728</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.172938583188126</v>
+        <v>-4.160016480283342</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.664825405569715</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39129833005813</v>
+        <v>-43.39571043611579</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.09081092634930409</v>
+        <v>-0.07106773366398118</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.501895784389334</v>
+        <v>-4.489510465901062</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.033706597270276</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79624962366048</v>
+        <v>-45.79605323911785</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3597791959297245</v>
+        <v>-0.3472629544130343</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.685057101145082</v>
+        <v>-4.669097583981018</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.414300710596281</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19489042729311</v>
+        <v>-48.19443219669365</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2956530966109501</v>
+        <v>-0.2778737493518861</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.962116413881689</v>
+        <v>-4.941469852300287</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.856250377902736</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41085432937514</v>
+        <v>-50.40598399271801</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4423523499524907</v>
+        <v>-0.4258953252804411</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.320518204173941</v>
+        <v>-5.302175887892682</v>
       </c>
     </row>
   </sheetData>
